--- a/docs/Conference/Meeting Minutes.xlsx
+++ b/docs/Conference/Meeting Minutes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuk6\Desktop\github\CapstoneDesign2022_1_DEML\Conference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yks\Desktop\github\CapstoneDesign2022_1_DEML\docs\Conference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC1C6D7A-67BA-46F2-BFD3-0E365186EE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D0ACE7-4DE0-4F1A-96CB-3D621C7DD987}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11325" xr2:uid="{11C47D75-4F89-4C6E-A9E0-FC4D56E35079}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11330" xr2:uid="{11C47D75-4F89-4C6E-A9E0-FC4D56E35079}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,28 +20,14 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주간 진행사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -57,6 +43,18 @@
     <t>물리계층 시뮬레이터를 개발하기 위한 간단한 예제로 linear코드 중,
 Hamming (7,4) 코드를 구현하여 결과를 확인해봄.
 (연산 최적화에 조금 더 신경써야 함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 수행내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행률</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -107,14 +105,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -430,127 +428,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8A6D09-9290-4F97-AF3E-53E8BCFCF1CF}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="71.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
+        <v>44624</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>44624</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:4" ht="66.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
+        <v>44631</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
+        <v>44638</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>44631</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>44638</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
         <v>44645</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
         <v>44652</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
         <v>44659</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
         <v>44666</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
         <v>44673</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
         <v>44680</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
         <v>44687</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="3">
         <v>44694</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="3">
         <v>44701</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="3">
         <v>44708</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="3">
         <v>44715</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="3">
         <v>44722</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" s="3">
         <v>44729</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" s="3">
         <v>44736</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" s="3">
         <v>44743</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>